--- a/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA93EAA2-52E1-4118-B67A-7BE90EF95833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87526C5-0059-4B17-9B85-8DDCEF4F6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t>PJ名</t>
   </si>
@@ -112,16 +112,6 @@
   </si>
   <si>
     <t>変更</t>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -669,43 +659,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションを実施し、入力内容の妥当性を確認する。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ダトウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>（ドメイン別）</t>
     <rPh sb="5" eb="6">
       <t>ベツ</t>
@@ -980,10 +933,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>FB1999904</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1086,6 +1035,164 @@
     <rPh sb="30" eb="32">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力項目名</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力情報</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報取得元</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBによる自動採番</t>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>バージョン番号</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「1」固定</t>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録処理の編集仕様を追記</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションおよび必須チェックを実施し、入力内容の妥当性を確認する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>単項目バリデーションのバリデーション内容の説明を修正</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1508,7 +1615,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1727,6 +1834,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1769,8 +1894,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1814,6 +1948,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2045,23 +2203,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2081,6 +2260,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2114,102 +2344,105 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2219,56 +2452,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6165,7 +6350,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="30"/>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -6183,12 +6368,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="88">
+      <c r="I25" s="98">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44705</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
+        <v>44908</v>
+      </c>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6816,57 +7001,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="136" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="133" t="s">
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="117" t="str">
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="138" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="120">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="141">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="122"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="143"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
@@ -6874,53 +7059,53 @@
       <c r="AN1" s="13"/>
     </row>
     <row r="2" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="133" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="130" t="str">
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="120">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="141">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44705</v>
-      </c>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122"/>
+        <v>44908</v>
+      </c>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="143"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
@@ -6928,45 +7113,45 @@
       <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="1:40" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="122"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="143"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -6975,7 +7160,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -7001,1046 +7186,1074 @@
     </row>
     <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="145"/>
+      <c r="D7" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="146"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="123" t="s">
+      <c r="H7" s="146"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="147" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="123" t="s">
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="145"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73">
         <v>1</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105">
+      <c r="B8" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118">
         <v>43718</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="125"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101">
+        <v>44705</v>
+      </c>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91">
-        <v>44705</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="268" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="197" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="194" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="97"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="107"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="194" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="197" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="194" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="97"/>
-    </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="97"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="107"/>
+    </row>
+    <row r="11" spans="1:40" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="87">
+        <v>3</v>
+      </c>
+      <c r="B11" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="113">
+        <v>44840</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="133"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="97"/>
+      <c r="A12" s="74">
+        <v>4</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="101">
+        <v>44908</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="133"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="300" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="97"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="107"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="97"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="107"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="97"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="107"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="97"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="107"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="97"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="107"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="97"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="107"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="97"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
+      <c r="AI19" s="107"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="97"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="97"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="107"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="97"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="97"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="97"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="97"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="97"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="107"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="96"/>
-      <c r="AI27" s="97"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="107"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="97"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="107"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="100"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="96"/>
-      <c r="AI29" s="97"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="107"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="97"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="107"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="96"/>
-      <c r="AI31" s="97"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="107"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="96"/>
-      <c r="AH32" s="96"/>
-      <c r="AI32" s="97"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="107"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="96"/>
-      <c r="AI33" s="97"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="107"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
@@ -8382,157 +8595,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="170" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="158" t="str">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="191" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="167" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="190"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="154">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="175">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44705</v>
-      </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+        <v>44908</v>
+      </c>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="154" t="str">
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
@@ -8589,7 +8802,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
@@ -8650,7 +8863,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="20"/>
@@ -8690,7 +8903,7 @@
       <c r="A8" s="20"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -8729,7 +8942,7 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -8804,7 +9017,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -8844,7 +9057,7 @@
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8883,7 +9096,7 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -8917,7 +9130,7 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8956,7 +9169,7 @@
       <c r="A15" s="20"/>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -8995,7 +9208,7 @@
       <c r="A16" s="20"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -9859,157 +10072,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="212"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="189">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44705</v>
-      </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+        <v>44908</v>
+      </c>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="212"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="212"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
@@ -10051,7 +10264,7 @@
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -10091,7 +10304,7 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -10165,94 +10378,94 @@
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="192" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
-      <c r="AC8" s="193"/>
-      <c r="AD8" s="193"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
+      <c r="D8" s="203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="214"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214"/>
+      <c r="AA8" s="214"/>
+      <c r="AB8" s="214"/>
+      <c r="AC8" s="214"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="214"/>
+      <c r="AF8" s="214"/>
+      <c r="AG8" s="214"/>
+      <c r="AH8" s="214"/>
     </row>
     <row r="9" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="188" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="188"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="188"/>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
+      <c r="D9" s="203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="209"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="209"/>
+      <c r="U9" s="209"/>
+      <c r="V9" s="209"/>
+      <c r="W9" s="209"/>
+      <c r="X9" s="209"/>
+      <c r="Y9" s="209"/>
+      <c r="Z9" s="209"/>
+      <c r="AA9" s="209"/>
+      <c r="AB9" s="209"/>
+      <c r="AC9" s="209"/>
+      <c r="AD9" s="209"/>
+      <c r="AE9" s="209"/>
+      <c r="AF9" s="209"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="209"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="179" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
+      <c r="D10" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="202"/>
       <c r="H10" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
@@ -10285,174 +10498,174 @@
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="192" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="193"/>
-      <c r="S11" s="193"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="193"/>
-      <c r="AE11" s="193"/>
-      <c r="AF11" s="193"/>
-      <c r="AG11" s="193"/>
-      <c r="AH11" s="193"/>
+      <c r="D11" s="203" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="213" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="214"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="214"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="214"/>
+      <c r="W11" s="214"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="214"/>
+      <c r="AB11" s="214"/>
+      <c r="AC11" s="214"/>
+      <c r="AD11" s="214"/>
+      <c r="AE11" s="214"/>
+      <c r="AF11" s="214"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="214"/>
     </row>
     <row r="12" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="188" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="188"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="188"/>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="188"/>
+      <c r="D12" s="203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="209"/>
+      <c r="R12" s="209"/>
+      <c r="S12" s="209"/>
+      <c r="T12" s="209"/>
+      <c r="U12" s="209"/>
+      <c r="V12" s="209"/>
+      <c r="W12" s="209"/>
+      <c r="X12" s="209"/>
+      <c r="Y12" s="209"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="209"/>
+      <c r="AB12" s="209"/>
+      <c r="AC12" s="209"/>
+      <c r="AD12" s="209"/>
+      <c r="AE12" s="209"/>
+      <c r="AF12" s="209"/>
+      <c r="AG12" s="209"/>
+      <c r="AH12" s="209"/>
     </row>
     <row r="13" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="182" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="188"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
+      <c r="D13" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="209" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="209"/>
+      <c r="P13" s="209"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="209"/>
+      <c r="S13" s="209"/>
+      <c r="T13" s="209"/>
+      <c r="U13" s="209"/>
+      <c r="V13" s="209"/>
+      <c r="W13" s="209"/>
+      <c r="X13" s="209"/>
+      <c r="Y13" s="209"/>
+      <c r="Z13" s="209"/>
+      <c r="AA13" s="209"/>
+      <c r="AB13" s="209"/>
+      <c r="AC13" s="209"/>
+      <c r="AD13" s="209"/>
+      <c r="AE13" s="209"/>
+      <c r="AF13" s="209"/>
+      <c r="AG13" s="209"/>
+      <c r="AH13" s="209"/>
     </row>
     <row r="14" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="182" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="188" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="188"/>
-      <c r="V14" s="188"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="188"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
+      <c r="D14" s="203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="209" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
+      <c r="P14" s="209"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="209"/>
+      <c r="S14" s="209"/>
+      <c r="T14" s="209"/>
+      <c r="U14" s="209"/>
+      <c r="V14" s="209"/>
+      <c r="W14" s="209"/>
+      <c r="X14" s="209"/>
+      <c r="Y14" s="209"/>
+      <c r="Z14" s="209"/>
+      <c r="AA14" s="209"/>
+      <c r="AB14" s="209"/>
+      <c r="AC14" s="209"/>
+      <c r="AD14" s="209"/>
+      <c r="AE14" s="209"/>
+      <c r="AF14" s="209"/>
+      <c r="AG14" s="209"/>
+      <c r="AH14" s="209"/>
     </row>
     <row r="15" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="184"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="205"/>
       <c r="H15" s="82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I15" s="83"/>
       <c r="J15" s="83"/>
@@ -10598,30 +10811,30 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="208"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="207"/>
+      <c r="T19" s="207"/>
+      <c r="U19" s="207"/>
+      <c r="V19" s="207"/>
+      <c r="W19" s="207"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="207"/>
+      <c r="AD19" s="207"/>
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11134,162 +11347,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="212"/>
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="189">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44705</v>
-      </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+        <v>44908</v>
+      </c>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="212"/>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="212"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11329,7 +11542,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11341,163 +11554,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="157" t="str">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="117" t="str">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="189">
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="212"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="13"/>
     </row>
     <row r="2" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="157" t="str">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="117" t="str">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="189">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="210">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44705</v>
-      </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+        <v>44908</v>
+      </c>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="212"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="1:38" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="157" t="str">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="178" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="117" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="210" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="212"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -11505,7 +11718,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -11543,7 +11756,7 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -11615,94 +11828,94 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="229" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="231" t="s">
+      <c r="D8" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="237" t="s">
+      <c r="E8" s="277" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="232"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="238" t="s">
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="283" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="243" t="s">
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="284" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="244"/>
-      <c r="U8" s="245"/>
-      <c r="V8" s="240" t="s">
-        <v>35</v>
-      </c>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240"/>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
-      <c r="AD8" s="240"/>
-      <c r="AE8" s="240"/>
-      <c r="AF8" s="240"/>
-      <c r="AG8" s="240"/>
-      <c r="AH8" s="240"/>
+      <c r="P8" s="289" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="286" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="286"/>
+      <c r="X8" s="286"/>
+      <c r="Y8" s="286"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="286"/>
+      <c r="AB8" s="286"/>
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="286"/>
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="286"/>
+      <c r="AH8" s="286"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="236"/>
-      <c r="O9" s="239"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="280"/>
+      <c r="L9" s="281"/>
+      <c r="M9" s="281"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="285"/>
       <c r="P9" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="242"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="240"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="240"/>
-      <c r="AA9" s="240"/>
-      <c r="AB9" s="240"/>
-      <c r="AC9" s="240"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="240"/>
-      <c r="AF9" s="240"/>
-      <c r="AG9" s="240"/>
-      <c r="AH9" s="240"/>
+      <c r="T9" s="287" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="288"/>
+      <c r="V9" s="286"/>
+      <c r="W9" s="286"/>
+      <c r="X9" s="286"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="286"/>
+      <c r="AF9" s="286"/>
+      <c r="AG9" s="286"/>
+      <c r="AH9" s="286"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="26"/>
@@ -11710,52 +11923,52 @@
       <c r="D10" s="70">
         <v>1</v>
       </c>
-      <c r="E10" s="197" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="100"/>
+      <c r="E10" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="52" t="s">
-        <v>84</v>
-      </c>
       <c r="Q10" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="T10" s="295" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="296"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="110"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="26"/>
@@ -11763,52 +11976,52 @@
       <c r="D11" s="70">
         <v>2</v>
       </c>
-      <c r="E11" s="197" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="E11" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" s="218"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="T11" s="295" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="296"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="110"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="26"/>
@@ -11816,52 +12029,52 @@
       <c r="D12" s="70">
         <v>3</v>
       </c>
-      <c r="E12" s="197" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
+      <c r="E12" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S12" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="218"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="T12" s="295" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="296"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="110"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="26"/>
@@ -11935,7 +12148,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="26"/>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -12008,42 +12221,42 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="253" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="206" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="207"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="249" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="250"/>
-      <c r="N17" s="250"/>
-      <c r="O17" s="250"/>
-      <c r="P17" s="250"/>
-      <c r="Q17" s="250"/>
-      <c r="R17" s="250"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="250"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="250"/>
-      <c r="X17" s="250"/>
-      <c r="Y17" s="250"/>
-      <c r="Z17" s="250"/>
-      <c r="AA17" s="250"/>
-      <c r="AB17" s="250"/>
-      <c r="AC17" s="250"/>
-      <c r="AD17" s="250"/>
-      <c r="AE17" s="250"/>
-      <c r="AF17" s="250"/>
-      <c r="AG17" s="250"/>
-      <c r="AH17" s="251"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="255"/>
+      <c r="H17" s="297" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="298"/>
+      <c r="J17" s="298"/>
+      <c r="K17" s="298"/>
+      <c r="L17" s="298"/>
+      <c r="M17" s="298"/>
+      <c r="N17" s="298"/>
+      <c r="O17" s="298"/>
+      <c r="P17" s="298"/>
+      <c r="Q17" s="298"/>
+      <c r="R17" s="298"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="298"/>
+      <c r="V17" s="298"/>
+      <c r="W17" s="298"/>
+      <c r="X17" s="298"/>
+      <c r="Y17" s="298"/>
+      <c r="Z17" s="298"/>
+      <c r="AA17" s="298"/>
+      <c r="AB17" s="298"/>
+      <c r="AC17" s="298"/>
+      <c r="AD17" s="298"/>
+      <c r="AE17" s="298"/>
+      <c r="AF17" s="298"/>
+      <c r="AG17" s="298"/>
+      <c r="AH17" s="299"/>
     </row>
     <row r="18" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="26"/>
@@ -12051,40 +12264,40 @@
       <c r="D18" s="70">
         <v>1</v>
       </c>
-      <c r="E18" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="100"/>
+      <c r="E18" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="109"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="110"/>
     </row>
     <row r="19" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12092,40 +12305,40 @@
       <c r="D19" s="70">
         <v>2</v>
       </c>
-      <c r="E19" s="197" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="197" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="100"/>
+      <c r="E19" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="109"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="110"/>
     </row>
     <row r="20" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12133,40 +12346,40 @@
       <c r="D20" s="70">
         <v>3</v>
       </c>
-      <c r="E20" s="197" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="100"/>
+      <c r="E20" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="110"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
@@ -12241,7 +12454,7 @@
     <row r="23" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -12279,7 +12492,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="26"/>
       <c r="D24" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -12351,7 +12564,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="26"/>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -12422,44 +12635,44 @@
       <c r="B28" s="1"/>
       <c r="C28" s="26"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="219" t="s">
+      <c r="E28" s="264" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="264"/>
+      <c r="G28" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="219"/>
-      <c r="G28" s="188" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
-      <c r="M28" s="219" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="219"/>
-      <c r="O28" s="246" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="247"/>
-      <c r="R28" s="247"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="247"/>
-      <c r="W28" s="247"/>
-      <c r="X28" s="247"/>
-      <c r="Y28" s="247"/>
-      <c r="Z28" s="247"/>
-      <c r="AA28" s="247"/>
-      <c r="AB28" s="247"/>
-      <c r="AC28" s="247"/>
-      <c r="AD28" s="247"/>
-      <c r="AE28" s="247"/>
-      <c r="AF28" s="247"/>
-      <c r="AG28" s="247"/>
-      <c r="AH28" s="248"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="292" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="293"/>
+      <c r="Q28" s="293"/>
+      <c r="R28" s="293"/>
+      <c r="S28" s="293"/>
+      <c r="T28" s="293"/>
+      <c r="U28" s="293"/>
+      <c r="V28" s="293"/>
+      <c r="W28" s="293"/>
+      <c r="X28" s="293"/>
+      <c r="Y28" s="293"/>
+      <c r="Z28" s="293"/>
+      <c r="AA28" s="293"/>
+      <c r="AB28" s="293"/>
+      <c r="AC28" s="293"/>
+      <c r="AD28" s="293"/>
+      <c r="AE28" s="293"/>
+      <c r="AF28" s="293"/>
+      <c r="AG28" s="293"/>
+      <c r="AH28" s="294"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
@@ -12498,13 +12711,13 @@
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -12514,87 +12727,87 @@
     </row>
     <row r="34" spans="1:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="271" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="252" t="s">
+      <c r="G34" s="237"/>
+      <c r="H34" s="237"/>
+      <c r="I34" s="237"/>
+      <c r="J34" s="237"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
-      <c r="K34" s="254"/>
-      <c r="L34" s="255" t="s">
+      <c r="M34" s="237"/>
+      <c r="N34" s="237"/>
+      <c r="O34" s="237"/>
+      <c r="P34" s="237"/>
+      <c r="Q34" s="237"/>
+      <c r="R34" s="237"/>
+      <c r="S34" s="237"/>
+      <c r="T34" s="237"/>
+      <c r="U34" s="238"/>
+      <c r="V34" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="253"/>
-      <c r="N34" s="253"/>
-      <c r="O34" s="253"/>
-      <c r="P34" s="253"/>
-      <c r="Q34" s="253"/>
-      <c r="R34" s="253"/>
-      <c r="S34" s="253"/>
-      <c r="T34" s="253"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="256" t="s">
+      <c r="W34" s="240"/>
+      <c r="X34" s="241"/>
+      <c r="Y34" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="W34" s="257"/>
-      <c r="X34" s="258"/>
-      <c r="Y34" s="256" t="s">
+      <c r="Z34" s="240"/>
+      <c r="AA34" s="240"/>
+      <c r="AB34" s="241"/>
+      <c r="AC34" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="Z34" s="257"/>
-      <c r="AA34" s="257"/>
-      <c r="AB34" s="258"/>
-      <c r="AC34" s="259" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="261"/>
+      <c r="AD34" s="245"/>
+      <c r="AE34" s="245"/>
+      <c r="AF34" s="246"/>
     </row>
     <row r="35" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="80">
         <v>1</v>
       </c>
-      <c r="F35" s="264" t="s">
+      <c r="F35" s="249" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="247"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="247"/>
+      <c r="K35" s="248"/>
+      <c r="L35" s="230" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="247"/>
+      <c r="N35" s="247"/>
+      <c r="O35" s="247"/>
+      <c r="P35" s="247"/>
+      <c r="Q35" s="247"/>
+      <c r="R35" s="247"/>
+      <c r="S35" s="247"/>
+      <c r="T35" s="247"/>
+      <c r="U35" s="248"/>
+      <c r="V35" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="262"/>
-      <c r="H35" s="262"/>
-      <c r="I35" s="262"/>
-      <c r="J35" s="262"/>
-      <c r="K35" s="263"/>
-      <c r="L35" s="200" t="s">
+      <c r="W35" s="251"/>
+      <c r="X35" s="252"/>
+      <c r="Y35" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="M35" s="262"/>
-      <c r="N35" s="262"/>
-      <c r="O35" s="262"/>
-      <c r="P35" s="262"/>
-      <c r="Q35" s="262"/>
-      <c r="R35" s="262"/>
-      <c r="S35" s="262"/>
-      <c r="T35" s="262"/>
-      <c r="U35" s="263"/>
-      <c r="V35" s="265" t="s">
-        <v>94</v>
-      </c>
-      <c r="W35" s="266"/>
-      <c r="X35" s="267"/>
-      <c r="Y35" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z35" s="201"/>
-      <c r="AA35" s="201"/>
-      <c r="AB35" s="202"/>
-      <c r="AC35" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD35" s="262"/>
-      <c r="AE35" s="262"/>
-      <c r="AF35" s="263"/>
+      <c r="Z35" s="231"/>
+      <c r="AA35" s="231"/>
+      <c r="AB35" s="232"/>
+      <c r="AC35" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD35" s="247"/>
+      <c r="AE35" s="247"/>
+      <c r="AF35" s="248"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37"/>
@@ -12602,7 +12815,7 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -12640,80 +12853,80 @@
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="221" t="s">
+      <c r="E38" s="266" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="265" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="265"/>
+      <c r="L38" s="265"/>
+      <c r="M38" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="222"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="220"/>
-      <c r="L38" s="220"/>
-      <c r="M38" s="226" t="s">
-        <v>111</v>
-      </c>
-      <c r="N38" s="227"/>
-      <c r="O38" s="227"/>
-      <c r="P38" s="227"/>
-      <c r="Q38" s="227"/>
-      <c r="R38" s="227"/>
-      <c r="S38" s="228"/>
-      <c r="T38" s="226" t="s">
-        <v>90</v>
-      </c>
-      <c r="U38" s="227"/>
-      <c r="V38" s="227"/>
-      <c r="W38" s="227"/>
-      <c r="X38" s="227"/>
-      <c r="Y38" s="227"/>
-      <c r="Z38" s="227"/>
-      <c r="AA38" s="227"/>
-      <c r="AB38" s="227"/>
-      <c r="AC38" s="227"/>
-      <c r="AD38" s="228"/>
+      <c r="N38" s="269"/>
+      <c r="O38" s="269"/>
+      <c r="P38" s="269"/>
+      <c r="Q38" s="269"/>
+      <c r="R38" s="269"/>
+      <c r="S38" s="270"/>
+      <c r="T38" s="268" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="269"/>
+      <c r="V38" s="269"/>
+      <c r="W38" s="269"/>
+      <c r="X38" s="269"/>
+      <c r="Y38" s="269"/>
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="269"/>
+      <c r="AB38" s="269"/>
+      <c r="AC38" s="269"/>
+      <c r="AD38" s="270"/>
     </row>
     <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" s="200" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="205" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="205"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="200" t="s">
-        <v>118</v>
-      </c>
-      <c r="N39" s="201"/>
-      <c r="O39" s="201"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="201"/>
-      <c r="R39" s="201"/>
-      <c r="S39" s="202"/>
-      <c r="T39" s="200" t="s">
-        <v>118</v>
-      </c>
-      <c r="U39" s="201"/>
-      <c r="V39" s="201"/>
-      <c r="W39" s="201"/>
-      <c r="X39" s="201"/>
-      <c r="Y39" s="201"/>
-      <c r="Z39" s="201"/>
-      <c r="AA39" s="201"/>
-      <c r="AB39" s="201"/>
-      <c r="AC39" s="201"/>
-      <c r="AD39" s="202"/>
+      <c r="E39" s="230" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="231"/>
+      <c r="G39" s="231"/>
+      <c r="H39" s="231"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="235" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="235"/>
+      <c r="L39" s="235"/>
+      <c r="M39" s="230" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="231"/>
+      <c r="O39" s="231"/>
+      <c r="P39" s="231"/>
+      <c r="Q39" s="231"/>
+      <c r="R39" s="231"/>
+      <c r="S39" s="232"/>
+      <c r="T39" s="230" t="s">
+        <v>116</v>
+      </c>
+      <c r="U39" s="231"/>
+      <c r="V39" s="231"/>
+      <c r="W39" s="231"/>
+      <c r="X39" s="231"/>
+      <c r="Y39" s="231"/>
+      <c r="Z39" s="231"/>
+      <c r="AA39" s="231"/>
+      <c r="AB39" s="231"/>
+      <c r="AC39" s="231"/>
+      <c r="AD39" s="232"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40"/>
@@ -12791,639 +13004,864 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E44" s="81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="221" t="s">
+      <c r="E46" s="266" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="267"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="267"/>
+      <c r="J46" s="265" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" s="265"/>
+      <c r="L46" s="265"/>
+      <c r="M46" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="222"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="222"/>
-      <c r="I46" s="222"/>
-      <c r="J46" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="K46" s="220"/>
-      <c r="L46" s="220"/>
-      <c r="M46" s="226" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="227"/>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="227"/>
-      <c r="R46" s="227"/>
-      <c r="S46" s="228"/>
-      <c r="T46" s="226" t="s">
-        <v>90</v>
-      </c>
-      <c r="U46" s="227"/>
-      <c r="V46" s="227"/>
-      <c r="W46" s="227"/>
-      <c r="X46" s="227"/>
-      <c r="Y46" s="227"/>
-      <c r="Z46" s="227"/>
-      <c r="AA46" s="227"/>
-      <c r="AB46" s="227"/>
-      <c r="AC46" s="227"/>
-      <c r="AD46" s="228"/>
-    </row>
-    <row r="47" spans="1:35" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="200" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="225"/>
-      <c r="J47" s="205" t="s">
-        <v>127</v>
-      </c>
-      <c r="K47" s="205"/>
-      <c r="L47" s="205"/>
-      <c r="M47" s="200" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47" s="201"/>
-      <c r="O47" s="201"/>
-      <c r="P47" s="201"/>
-      <c r="Q47" s="201"/>
-      <c r="R47" s="201"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="200" t="s">
-        <v>126</v>
-      </c>
-      <c r="U47" s="201"/>
-      <c r="V47" s="201"/>
-      <c r="W47" s="201"/>
-      <c r="X47" s="201"/>
-      <c r="Y47" s="201"/>
-      <c r="Z47" s="201"/>
-      <c r="AA47" s="201"/>
-      <c r="AB47" s="201"/>
-      <c r="AC47" s="201"/>
-      <c r="AD47" s="202"/>
+      <c r="N46" s="269"/>
+      <c r="O46" s="269"/>
+      <c r="P46" s="269"/>
+      <c r="Q46" s="269"/>
+      <c r="R46" s="269"/>
+      <c r="S46" s="270"/>
+      <c r="T46" s="268" t="s">
+        <v>89</v>
+      </c>
+      <c r="U46" s="269"/>
+      <c r="V46" s="269"/>
+      <c r="W46" s="269"/>
+      <c r="X46" s="269"/>
+      <c r="Y46" s="269"/>
+      <c r="Z46" s="269"/>
+      <c r="AA46" s="269"/>
+      <c r="AB46" s="269"/>
+      <c r="AC46" s="269"/>
+      <c r="AD46" s="270"/>
+    </row>
+    <row r="47" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="230" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="274"/>
+      <c r="G47" s="274"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="274"/>
+      <c r="J47" s="235" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47" s="235"/>
+      <c r="L47" s="235"/>
+      <c r="M47" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" s="231"/>
+      <c r="O47" s="231"/>
+      <c r="P47" s="231"/>
+      <c r="Q47" s="231"/>
+      <c r="R47" s="231"/>
+      <c r="S47" s="232"/>
+      <c r="T47" s="230" t="s">
+        <v>99</v>
+      </c>
+      <c r="U47" s="231"/>
+      <c r="V47" s="231"/>
+      <c r="W47" s="231"/>
+      <c r="X47" s="231"/>
+      <c r="Y47" s="231"/>
+      <c r="Z47" s="231"/>
+      <c r="AA47" s="231"/>
+      <c r="AB47" s="231"/>
+      <c r="AC47" s="231"/>
+      <c r="AD47" s="232"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="F48"/>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="4:33" x14ac:dyDescent="0.15">
       <c r="E52" s="81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="E53" s="81"/>
+    </row>
+    <row r="54" spans="4:33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="4:33" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="242" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="215" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="216"/>
+      <c r="I56" s="216"/>
+      <c r="J56" s="216"/>
+      <c r="K56" s="216"/>
+      <c r="L56" s="217"/>
+      <c r="M56" s="221" t="s">
+        <v>143</v>
+      </c>
+      <c r="N56" s="222"/>
+      <c r="O56" s="222"/>
+      <c r="P56" s="222"/>
+      <c r="Q56" s="222"/>
+      <c r="R56" s="222"/>
+      <c r="S56" s="222"/>
+      <c r="T56" s="222"/>
+      <c r="U56" s="222"/>
+      <c r="V56" s="222"/>
+      <c r="W56" s="223"/>
+      <c r="X56" s="215" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y56" s="216"/>
+      <c r="Z56" s="216"/>
+      <c r="AA56" s="216"/>
+      <c r="AB56" s="216"/>
+      <c r="AC56" s="217"/>
+      <c r="AD56" s="215" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE56" s="216"/>
+      <c r="AF56" s="216"/>
+      <c r="AG56" s="217"/>
+    </row>
+    <row r="57" spans="4:33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="243"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="219"/>
+      <c r="I57" s="219"/>
+      <c r="J57" s="219"/>
+      <c r="K57" s="219"/>
+      <c r="L57" s="220"/>
+      <c r="M57" s="221" t="s">
+        <v>144</v>
+      </c>
+      <c r="N57" s="222"/>
+      <c r="O57" s="222"/>
+      <c r="P57" s="222"/>
+      <c r="Q57" s="223"/>
+      <c r="R57" s="224" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" s="225"/>
+      <c r="T57" s="225"/>
+      <c r="U57" s="225"/>
+      <c r="V57" s="225"/>
+      <c r="W57" s="226"/>
+      <c r="X57" s="218"/>
+      <c r="Y57" s="219"/>
+      <c r="Z57" s="219"/>
+      <c r="AA57" s="219"/>
+      <c r="AB57" s="219"/>
+      <c r="AC57" s="220"/>
+      <c r="AD57" s="218"/>
+      <c r="AE57" s="219"/>
+      <c r="AF57" s="219"/>
+      <c r="AG57" s="220"/>
+    </row>
+    <row r="58" spans="4:33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="87">
+        <v>1</v>
+      </c>
+      <c r="G58" s="227" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="228"/>
+      <c r="I58" s="228"/>
+      <c r="J58" s="228"/>
+      <c r="K58" s="228"/>
+      <c r="L58" s="229"/>
+      <c r="M58" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="S58" s="136"/>
+      <c r="T58" s="136"/>
+      <c r="U58" s="136"/>
+      <c r="V58" s="136"/>
+      <c r="W58" s="137"/>
+      <c r="X58" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y58" s="136"/>
+      <c r="Z58" s="136"/>
+      <c r="AA58" s="136"/>
+      <c r="AB58" s="136"/>
+      <c r="AC58" s="137"/>
+      <c r="AD58" s="115"/>
+      <c r="AE58" s="136"/>
+      <c r="AF58" s="136"/>
+      <c r="AG58" s="137"/>
+    </row>
+    <row r="59" spans="4:33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="87">
+        <v>2</v>
+      </c>
+      <c r="G59" s="227" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="228"/>
+      <c r="I59" s="228"/>
+      <c r="J59" s="228"/>
+      <c r="K59" s="228"/>
+      <c r="L59" s="229"/>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+      <c r="R59" s="227" t="s">
+        <v>129</v>
+      </c>
+      <c r="S59" s="228"/>
+      <c r="T59" s="228"/>
+      <c r="U59" s="228"/>
+      <c r="V59" s="228"/>
+      <c r="W59" s="229"/>
+      <c r="X59" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y59" s="136"/>
+      <c r="Z59" s="136"/>
+      <c r="AA59" s="136"/>
+      <c r="AB59" s="136"/>
+      <c r="AC59" s="137"/>
+      <c r="AD59" s="115"/>
+      <c r="AE59" s="136"/>
+      <c r="AF59" s="136"/>
+      <c r="AG59" s="137"/>
+    </row>
+    <row r="60" spans="4:33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="87">
+        <v>3</v>
+      </c>
+      <c r="G60" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="228"/>
+      <c r="I60" s="228"/>
+      <c r="J60" s="228"/>
+      <c r="K60" s="228"/>
+      <c r="L60" s="229"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="S60" s="228"/>
+      <c r="T60" s="228"/>
+      <c r="U60" s="228"/>
+      <c r="V60" s="228"/>
+      <c r="W60" s="229"/>
+      <c r="X60" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y60" s="136"/>
+      <c r="Z60" s="136"/>
+      <c r="AA60" s="136"/>
+      <c r="AB60" s="136"/>
+      <c r="AC60" s="137"/>
+      <c r="AD60" s="115"/>
+      <c r="AE60" s="136"/>
+      <c r="AF60" s="136"/>
+      <c r="AG60" s="137"/>
+    </row>
+    <row r="61" spans="4:33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="87">
+        <v>4</v>
+      </c>
+      <c r="G61" s="227" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="228"/>
+      <c r="I61" s="228"/>
+      <c r="J61" s="228"/>
+      <c r="K61" s="228"/>
+      <c r="L61" s="229"/>
+      <c r="M61" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="S61" s="136"/>
+      <c r="T61" s="136"/>
+      <c r="U61" s="136"/>
+      <c r="V61" s="136"/>
+      <c r="W61" s="137"/>
+      <c r="X61" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y61" s="136"/>
+      <c r="Z61" s="136"/>
+      <c r="AA61" s="136"/>
+      <c r="AB61" s="136"/>
+      <c r="AC61" s="137"/>
+      <c r="AD61" s="115"/>
+      <c r="AE61" s="136"/>
+      <c r="AF61" s="136"/>
+      <c r="AG61" s="137"/>
+    </row>
+    <row r="63" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="E56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C58" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-    </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C59" s="26"/>
-      <c r="D59" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-    </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-    </row>
-    <row r="61" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="85"/>
-      <c r="E61" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD61" s="86"/>
-      <c r="AE61" s="85"/>
-      <c r="AF61" s="85"/>
-    </row>
-    <row r="62" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="85"/>
-      <c r="AD62" s="86"/>
-      <c r="AE62" s="85"/>
-      <c r="AF62" s="85"/>
-    </row>
-    <row r="63" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="220" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="220"/>
-      <c r="G63" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" s="195"/>
-      <c r="I63" s="195"/>
-      <c r="J63" s="195"/>
-      <c r="K63" s="195"/>
-      <c r="L63" s="196"/>
-      <c r="M63" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="220"/>
-      <c r="O63" s="194" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63" s="195"/>
-      <c r="Q63" s="195"/>
-      <c r="R63" s="195"/>
-      <c r="S63" s="195"/>
-      <c r="T63" s="195"/>
-      <c r="U63" s="195"/>
-      <c r="V63" s="195"/>
-      <c r="W63" s="195"/>
-      <c r="X63" s="195"/>
-      <c r="Y63" s="195"/>
-      <c r="Z63" s="195"/>
-      <c r="AA63" s="195"/>
-      <c r="AB63" s="195"/>
-      <c r="AC63" s="195"/>
-      <c r="AD63" s="195"/>
-      <c r="AE63" s="195"/>
-      <c r="AF63" s="195"/>
-      <c r="AG63" s="195"/>
-      <c r="AH63" s="196"/>
-    </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="26"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="26"/>
-      <c r="AA64" s="26"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="26"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="26"/>
-      <c r="AF64" s="26"/>
-    </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C65" s="26"/>
-      <c r="D65" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
-      <c r="AF65" s="26"/>
-    </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-    </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C67" s="26"/>
+      <c r="C67" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="D67" s="26"/>
-      <c r="E67" s="215" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="209" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="210"/>
-      <c r="H67" s="210"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="209" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="210"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="211"/>
-      <c r="N67" s="223" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="223"/>
-      <c r="P67" s="223"/>
-      <c r="Q67" s="223"/>
-      <c r="R67" s="223"/>
-      <c r="S67" s="223"/>
-      <c r="T67" s="223"/>
-      <c r="U67" s="223"/>
-      <c r="V67" s="223"/>
-      <c r="W67" s="209" t="s">
-        <v>34</v>
-      </c>
-      <c r="X67" s="210"/>
-      <c r="Y67" s="210"/>
-      <c r="Z67" s="210"/>
-      <c r="AA67" s="210"/>
-      <c r="AB67" s="210"/>
-      <c r="AC67" s="211"/>
-      <c r="AD67" s="209" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE67" s="210"/>
-      <c r="AF67" s="210"/>
-      <c r="AG67" s="210"/>
-      <c r="AH67" s="211"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="26"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="26"/>
+      <c r="AD67" s="26"/>
+      <c r="AE67" s="26"/>
+      <c r="AF67" s="26"/>
     </row>
     <row r="68" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C68" s="26"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="212"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="214"/>
-      <c r="J68" s="212"/>
-      <c r="K68" s="213"/>
-      <c r="L68" s="213"/>
-      <c r="M68" s="214"/>
-      <c r="N68" s="223" t="s">
-        <v>29</v>
-      </c>
-      <c r="O68" s="223"/>
-      <c r="P68" s="223"/>
-      <c r="Q68" s="223"/>
-      <c r="R68" s="223"/>
-      <c r="S68" s="224" t="s">
-        <v>30</v>
-      </c>
-      <c r="T68" s="224"/>
-      <c r="U68" s="224"/>
-      <c r="V68" s="224"/>
-      <c r="W68" s="212"/>
-      <c r="X68" s="213"/>
-      <c r="Y68" s="213"/>
-      <c r="Z68" s="213"/>
-      <c r="AA68" s="213"/>
-      <c r="AB68" s="213"/>
-      <c r="AC68" s="214"/>
-      <c r="AD68" s="212"/>
-      <c r="AE68" s="213"/>
-      <c r="AF68" s="213"/>
-      <c r="AG68" s="213"/>
-      <c r="AH68" s="214"/>
-    </row>
-    <row r="69" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="85"/>
-      <c r="E69" s="87">
-        <v>1</v>
-      </c>
-      <c r="F69" s="200" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="201"/>
-      <c r="H69" s="201"/>
-      <c r="I69" s="202"/>
-      <c r="J69" s="200" t="s">
-        <v>129</v>
-      </c>
-      <c r="K69" s="201"/>
-      <c r="L69" s="201"/>
-      <c r="M69" s="202"/>
-      <c r="N69" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="O69" s="204"/>
-      <c r="P69" s="204"/>
-      <c r="Q69" s="204"/>
-      <c r="R69" s="204"/>
-      <c r="S69" s="205" t="s">
-        <v>129</v>
-      </c>
-      <c r="T69" s="205"/>
-      <c r="U69" s="205"/>
-      <c r="V69" s="205"/>
-      <c r="W69" s="197"/>
-      <c r="X69" s="198"/>
-      <c r="Y69" s="198"/>
-      <c r="Z69" s="198"/>
-      <c r="AA69" s="198"/>
-      <c r="AB69" s="198"/>
-      <c r="AC69" s="199"/>
-      <c r="AD69" s="197"/>
-      <c r="AE69" s="198"/>
-      <c r="AF69" s="198"/>
-      <c r="AG69" s="198"/>
-      <c r="AH69" s="199"/>
+      <c r="D68" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+    </row>
+    <row r="69" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="26"/>
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
     </row>
     <row r="70" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C70" s="85"/>
-      <c r="E70" s="87">
-        <v>2</v>
-      </c>
-      <c r="F70" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="G70" s="201"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="202"/>
-      <c r="J70" s="200" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" s="201"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="202"/>
-      <c r="N70" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="O70" s="204"/>
-      <c r="P70" s="204"/>
-      <c r="Q70" s="204"/>
-      <c r="R70" s="204"/>
-      <c r="S70" s="205" t="s">
-        <v>132</v>
-      </c>
-      <c r="T70" s="205"/>
-      <c r="U70" s="205"/>
-      <c r="V70" s="205"/>
-      <c r="W70" s="197"/>
-      <c r="X70" s="198"/>
-      <c r="Y70" s="198"/>
-      <c r="Z70" s="198"/>
-      <c r="AA70" s="198"/>
-      <c r="AB70" s="198"/>
-      <c r="AC70" s="199"/>
-      <c r="AD70" s="197"/>
-      <c r="AE70" s="198"/>
-      <c r="AF70" s="198"/>
-      <c r="AG70" s="198"/>
-      <c r="AH70" s="199"/>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD70" s="86"/>
+      <c r="AE70" s="85"/>
+      <c r="AF70" s="85"/>
     </row>
     <row r="71" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C71" s="85"/>
-      <c r="E71" s="87">
-        <v>3</v>
-      </c>
-      <c r="F71" s="200" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" s="201"/>
-      <c r="H71" s="201"/>
-      <c r="I71" s="202"/>
-      <c r="J71" s="200" t="s">
-        <v>134</v>
-      </c>
-      <c r="K71" s="201"/>
-      <c r="L71" s="201"/>
-      <c r="M71" s="202"/>
-      <c r="N71" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="O71" s="204"/>
-      <c r="P71" s="204"/>
-      <c r="Q71" s="204"/>
-      <c r="R71" s="204"/>
-      <c r="S71" s="205" t="s">
-        <v>134</v>
-      </c>
-      <c r="T71" s="205"/>
-      <c r="U71" s="205"/>
-      <c r="V71" s="205"/>
-      <c r="W71" s="197"/>
-      <c r="X71" s="198"/>
-      <c r="Y71" s="198"/>
-      <c r="Z71" s="198"/>
-      <c r="AA71" s="198"/>
-      <c r="AB71" s="198"/>
-      <c r="AC71" s="199"/>
-      <c r="AD71" s="197"/>
-      <c r="AE71" s="198"/>
-      <c r="AF71" s="198"/>
-      <c r="AG71" s="198"/>
-      <c r="AH71" s="199"/>
+      <c r="AD71" s="86"/>
+      <c r="AE71" s="85"/>
+      <c r="AF71" s="85"/>
     </row>
     <row r="72" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C72" s="85"/>
-      <c r="E72" s="87">
+      <c r="D72" s="85"/>
+      <c r="E72" s="265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="265"/>
+      <c r="G72" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="135"/>
+      <c r="M72" s="265" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="265"/>
+      <c r="O72" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134"/>
+      <c r="R72" s="134"/>
+      <c r="S72" s="134"/>
+      <c r="T72" s="134"/>
+      <c r="U72" s="134"/>
+      <c r="V72" s="134"/>
+      <c r="W72" s="134"/>
+      <c r="X72" s="134"/>
+      <c r="Y72" s="134"/>
+      <c r="Z72" s="134"/>
+      <c r="AA72" s="134"/>
+      <c r="AB72" s="134"/>
+      <c r="AC72" s="134"/>
+      <c r="AD72" s="134"/>
+      <c r="AE72" s="134"/>
+      <c r="AF72" s="134"/>
+      <c r="AG72" s="134"/>
+      <c r="AH72" s="135"/>
+    </row>
+    <row r="73" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="26"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="26"/>
+      <c r="AE73" s="26"/>
+      <c r="AF73" s="26"/>
+    </row>
+    <row r="74" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C74" s="26"/>
+      <c r="D74" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="26"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="26"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="26"/>
+      <c r="AD74" s="26"/>
+      <c r="AE74" s="26"/>
+      <c r="AF74" s="26"/>
+    </row>
+    <row r="75" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+    </row>
+    <row r="76" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="262" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="256" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="257"/>
+      <c r="H76" s="257"/>
+      <c r="I76" s="258"/>
+      <c r="J76" s="256" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="257"/>
+      <c r="L76" s="257"/>
+      <c r="M76" s="258"/>
+      <c r="N76" s="272" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="272"/>
+      <c r="P76" s="272"/>
+      <c r="Q76" s="272"/>
+      <c r="R76" s="272"/>
+      <c r="S76" s="272"/>
+      <c r="T76" s="272"/>
+      <c r="U76" s="272"/>
+      <c r="V76" s="272"/>
+      <c r="W76" s="256" t="s">
+        <v>33</v>
+      </c>
+      <c r="X76" s="257"/>
+      <c r="Y76" s="257"/>
+      <c r="Z76" s="257"/>
+      <c r="AA76" s="257"/>
+      <c r="AB76" s="257"/>
+      <c r="AC76" s="258"/>
+      <c r="AD76" s="256" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE76" s="257"/>
+      <c r="AF76" s="257"/>
+      <c r="AG76" s="257"/>
+      <c r="AH76" s="258"/>
+    </row>
+    <row r="77" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C77" s="26"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="263"/>
+      <c r="F77" s="259"/>
+      <c r="G77" s="260"/>
+      <c r="H77" s="260"/>
+      <c r="I77" s="261"/>
+      <c r="J77" s="259"/>
+      <c r="K77" s="260"/>
+      <c r="L77" s="260"/>
+      <c r="M77" s="261"/>
+      <c r="N77" s="272" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" s="272"/>
+      <c r="P77" s="272"/>
+      <c r="Q77" s="272"/>
+      <c r="R77" s="272"/>
+      <c r="S77" s="273" t="s">
+        <v>29</v>
+      </c>
+      <c r="T77" s="273"/>
+      <c r="U77" s="273"/>
+      <c r="V77" s="273"/>
+      <c r="W77" s="259"/>
+      <c r="X77" s="260"/>
+      <c r="Y77" s="260"/>
+      <c r="Z77" s="260"/>
+      <c r="AA77" s="260"/>
+      <c r="AB77" s="260"/>
+      <c r="AC77" s="261"/>
+      <c r="AD77" s="259"/>
+      <c r="AE77" s="260"/>
+      <c r="AF77" s="260"/>
+      <c r="AG77" s="260"/>
+      <c r="AH77" s="261"/>
+    </row>
+    <row r="78" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="85"/>
+      <c r="E78" s="87">
+        <v>1</v>
+      </c>
+      <c r="F78" s="230" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" s="231"/>
+      <c r="H78" s="231"/>
+      <c r="I78" s="232"/>
+      <c r="J78" s="230" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="231"/>
+      <c r="L78" s="231"/>
+      <c r="M78" s="232"/>
+      <c r="N78" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="O78" s="234"/>
+      <c r="P78" s="234"/>
+      <c r="Q78" s="234"/>
+      <c r="R78" s="234"/>
+      <c r="S78" s="235" t="s">
+        <v>126</v>
+      </c>
+      <c r="T78" s="235"/>
+      <c r="U78" s="235"/>
+      <c r="V78" s="235"/>
+      <c r="W78" s="115"/>
+      <c r="X78" s="136"/>
+      <c r="Y78" s="136"/>
+      <c r="Z78" s="136"/>
+      <c r="AA78" s="136"/>
+      <c r="AB78" s="136"/>
+      <c r="AC78" s="137"/>
+      <c r="AD78" s="115"/>
+      <c r="AE78" s="136"/>
+      <c r="AF78" s="136"/>
+      <c r="AG78" s="136"/>
+      <c r="AH78" s="137"/>
+    </row>
+    <row r="79" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="85"/>
+      <c r="E79" s="87">
+        <v>2</v>
+      </c>
+      <c r="F79" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="231"/>
+      <c r="H79" s="231"/>
+      <c r="I79" s="232"/>
+      <c r="J79" s="230" t="s">
+        <v>129</v>
+      </c>
+      <c r="K79" s="231"/>
+      <c r="L79" s="231"/>
+      <c r="M79" s="232"/>
+      <c r="N79" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="O79" s="234"/>
+      <c r="P79" s="234"/>
+      <c r="Q79" s="234"/>
+      <c r="R79" s="234"/>
+      <c r="S79" s="235" t="s">
+        <v>129</v>
+      </c>
+      <c r="T79" s="235"/>
+      <c r="U79" s="235"/>
+      <c r="V79" s="235"/>
+      <c r="W79" s="115"/>
+      <c r="X79" s="136"/>
+      <c r="Y79" s="136"/>
+      <c r="Z79" s="136"/>
+      <c r="AA79" s="136"/>
+      <c r="AB79" s="136"/>
+      <c r="AC79" s="137"/>
+      <c r="AD79" s="115"/>
+      <c r="AE79" s="136"/>
+      <c r="AF79" s="136"/>
+      <c r="AG79" s="136"/>
+      <c r="AH79" s="137"/>
+    </row>
+    <row r="80" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="85"/>
+      <c r="E80" s="87">
+        <v>3</v>
+      </c>
+      <c r="F80" s="230" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="231"/>
+      <c r="H80" s="231"/>
+      <c r="I80" s="232"/>
+      <c r="J80" s="230" t="s">
+        <v>131</v>
+      </c>
+      <c r="K80" s="231"/>
+      <c r="L80" s="231"/>
+      <c r="M80" s="232"/>
+      <c r="N80" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="O80" s="234"/>
+      <c r="P80" s="234"/>
+      <c r="Q80" s="234"/>
+      <c r="R80" s="234"/>
+      <c r="S80" s="235" t="s">
+        <v>131</v>
+      </c>
+      <c r="T80" s="235"/>
+      <c r="U80" s="235"/>
+      <c r="V80" s="235"/>
+      <c r="W80" s="115"/>
+      <c r="X80" s="136"/>
+      <c r="Y80" s="136"/>
+      <c r="Z80" s="136"/>
+      <c r="AA80" s="136"/>
+      <c r="AB80" s="136"/>
+      <c r="AC80" s="137"/>
+      <c r="AD80" s="115"/>
+      <c r="AE80" s="136"/>
+      <c r="AF80" s="136"/>
+      <c r="AG80" s="136"/>
+      <c r="AH80" s="137"/>
+    </row>
+    <row r="81" spans="3:34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="85"/>
+      <c r="E81" s="87">
         <v>4</v>
       </c>
-      <c r="F72" s="200" t="s">
-        <v>135</v>
-      </c>
-      <c r="G72" s="201"/>
-      <c r="H72" s="201"/>
-      <c r="I72" s="202"/>
-      <c r="J72" s="200" t="s">
-        <v>136</v>
-      </c>
-      <c r="K72" s="201"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="202"/>
-      <c r="N72" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="O72" s="204"/>
-      <c r="P72" s="204"/>
-      <c r="Q72" s="204"/>
-      <c r="R72" s="204"/>
-      <c r="S72" s="205" t="s">
-        <v>136</v>
-      </c>
-      <c r="T72" s="205"/>
-      <c r="U72" s="205"/>
-      <c r="V72" s="205"/>
-      <c r="W72" s="197"/>
-      <c r="X72" s="198"/>
-      <c r="Y72" s="198"/>
-      <c r="Z72" s="198"/>
-      <c r="AA72" s="198"/>
-      <c r="AB72" s="198"/>
-      <c r="AC72" s="199"/>
-      <c r="AD72" s="197"/>
-      <c r="AE72" s="198"/>
-      <c r="AF72" s="198"/>
-      <c r="AG72" s="198"/>
-      <c r="AH72" s="199"/>
+      <c r="F81" s="230" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="231"/>
+      <c r="H81" s="231"/>
+      <c r="I81" s="232"/>
+      <c r="J81" s="230" t="s">
+        <v>133</v>
+      </c>
+      <c r="K81" s="231"/>
+      <c r="L81" s="231"/>
+      <c r="M81" s="232"/>
+      <c r="N81" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="O81" s="234"/>
+      <c r="P81" s="234"/>
+      <c r="Q81" s="234"/>
+      <c r="R81" s="234"/>
+      <c r="S81" s="235" t="s">
+        <v>133</v>
+      </c>
+      <c r="T81" s="235"/>
+      <c r="U81" s="235"/>
+      <c r="V81" s="235"/>
+      <c r="W81" s="115"/>
+      <c r="X81" s="136"/>
+      <c r="Y81" s="136"/>
+      <c r="Z81" s="136"/>
+      <c r="AA81" s="136"/>
+      <c r="AB81" s="136"/>
+      <c r="AC81" s="137"/>
+      <c r="AD81" s="115"/>
+      <c r="AE81" s="136"/>
+      <c r="AF81" s="136"/>
+      <c r="AG81" s="136"/>
+      <c r="AH81" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
+  <mergeCells count="133">
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="E8:J9"/>
@@ -13439,6 +13877,15 @@
     <mergeCell ref="H18:AH18"/>
     <mergeCell ref="H19:AH19"/>
     <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -13446,14 +13893,14 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="J67:M68"/>
+    <mergeCell ref="J76:M77"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="N67:V67"/>
-    <mergeCell ref="N68:R68"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="W67:AC68"/>
-    <mergeCell ref="AD67:AH68"/>
+    <mergeCell ref="N76:V76"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W76:AC77"/>
+    <mergeCell ref="AD76:AH77"/>
     <mergeCell ref="M39:S39"/>
     <mergeCell ref="T39:AD39"/>
     <mergeCell ref="E47:I47"/>
@@ -13474,54 +13921,80 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="W69:AC69"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="F67:I68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="AD79:AH79"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:AC78"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="F76:I77"/>
+    <mergeCell ref="E76:E77"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="J46:L46"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:L72"/>
+    <mergeCell ref="M72:N72"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="J39:L39"/>
     <mergeCell ref="E38:I38"/>
-    <mergeCell ref="O63:AH63"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="W72:AC72"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:L57"/>
+    <mergeCell ref="M56:W56"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="O72:AH72"/>
+    <mergeCell ref="AD80:AH80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W81:AC81"/>
+    <mergeCell ref="AD81:AH81"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:R80"/>
+    <mergeCell ref="S80:V80"/>
+    <mergeCell ref="W80:AC80"/>
+    <mergeCell ref="AD78:AH78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="W79:AC79"/>
+    <mergeCell ref="R61:W61"/>
+    <mergeCell ref="X61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="X56:AC57"/>
+    <mergeCell ref="AD56:AG57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="X58:AC58"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="R59:W59"/>
+    <mergeCell ref="X59:AC59"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="R60:W60"/>
+    <mergeCell ref="X60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="G61:L61"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations disablePrompts="1" count="3">
@@ -13541,8 +14014,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -13563,37 +14037,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
